--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>소재비</t>
-  </si>
-  <si>
-    <t>TM각비</t>
   </si>
   <si>
     <t>선반</t>
@@ -96,6 +93,75 @@
   <si>
     <t>소재
 종류</t>
+  </si>
+  <si>
+    <t>$(data.ROWNUM}</t>
+  </si>
+  <si>
+    <t>$(data.DRAWING_NUM}</t>
+  </si>
+  <si>
+    <t>$(data.PART_NUM}</t>
+  </si>
+  <si>
+    <t>$(data.WORK_TYPE_NM}</t>
+  </si>
+  <si>
+    <t>$(data.MATERIAL_DETAIL_NM}</t>
+  </si>
+  <si>
+    <t>$(data.MATERIAL_TYPE_NM}</t>
+  </si>
+  <si>
+    <t>$(data.SIZE_TXT}</t>
+  </si>
+  <si>
+    <t>$(data.ITEM_QTY}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_SURFACE_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_PROCESS_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_ETC_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_EST_AMT}</t>
+  </si>
+  <si>
+    <t>${data.DTL_AMOUNT}</t>
+  </si>
+  <si>
+    <t>글램핑</t>
+  </si>
+  <si>
+    <t>상세 가공요건</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_LATHE}</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_SURFACE}</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_CLAMPING}</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_POCKET}</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_DRILL}</t>
+  </si>
+  <si>
+    <t>${data.DETAIL_DIFFICULTY}</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -181,13 +247,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -196,14 +265,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,161 +554,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X4"/>
+  <dimension ref="B1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:24">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:23" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:23">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="1"/>
     </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="6"/>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+    <row r="13" spans="2:23">
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+  <mergeCells count="17">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -41,38 +41,13 @@
     <t>규격</t>
   </si>
   <si>
-    <t>후처리</t>
-  </si>
-  <si>
     <t>소재비</t>
   </si>
   <si>
-    <t>선반</t>
-  </si>
-  <si>
-    <t>가공면</t>
-  </si>
-  <si>
-    <t>포켓</t>
-  </si>
-  <si>
-    <t>드릴</t>
-  </si>
-  <si>
-    <t>난도</t>
-  </si>
-  <si>
     <t>가공비</t>
   </si>
   <si>
-    <t>기타추가</t>
-  </si>
-  <si>
     <t>종전가</t>
-  </si>
-  <si>
-    <t>표면 
-처리비</t>
   </si>
   <si>
     <t>계산
@@ -95,30 +70,6 @@
 종류</t>
   </si>
   <si>
-    <t>$(data.ROWNUM}</t>
-  </si>
-  <si>
-    <t>$(data.DRAWING_NUM}</t>
-  </si>
-  <si>
-    <t>$(data.PART_NUM}</t>
-  </si>
-  <si>
-    <t>$(data.WORK_TYPE_NM}</t>
-  </si>
-  <si>
-    <t>$(data.MATERIAL_DETAIL_NM}</t>
-  </si>
-  <si>
-    <t>$(data.MATERIAL_TYPE_NM}</t>
-  </si>
-  <si>
-    <t>$(data.SIZE_TXT}</t>
-  </si>
-  <si>
-    <t>$(data.ITEM_QTY}</t>
-  </si>
-  <si>
     <t>${data.UNIT_SURFACE_AMT}</t>
   </si>
   <si>
@@ -137,31 +88,59 @@
     <t>${data.DTL_AMOUNT}</t>
   </si>
   <si>
-    <t>글램핑</t>
-  </si>
-  <si>
-    <t>상세 가공요건</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_LATHE}</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_SURFACE}</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_CLAMPING}</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_POCKET}</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_DRILL}</t>
-  </si>
-  <si>
-    <t>${data.DETAIL_DIFFICULTY}</t>
-  </si>
-  <si>
-    <t>)</t>
+    <t>${data.ROWNUM}</t>
+  </si>
+  <si>
+    <t>${data.DRAWING_NUM}</t>
+  </si>
+  <si>
+    <t>${data.PART_NUM}</t>
+  </si>
+  <si>
+    <t>${data.ITEM_QTY}</t>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
+  </si>
+  <si>
+    <t>${data.MATERIAL_TYPE_NM}</t>
+  </si>
+  <si>
+    <t>${data.MATERIAL_DETAIL_NM}</t>
+  </si>
+  <si>
+    <t>${data.WORK_TYPE_NM}</t>
+  </si>
+  <si>
+    <t>${data.CALCUL_EST_UNIT_COST}</t>
+  </si>
+  <si>
+    <t>표면처리</t>
+  </si>
+  <si>
+    <t>TM각비</t>
+  </si>
+  <si>
+    <t>연마비</t>
+  </si>
+  <si>
+    <t>열처리</t>
+  </si>
+  <si>
+    <t>표면
+처리</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>${data.UNIT_TM_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_GRIND_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_HEAT_AMT}</t>
   </si>
 </sst>
 </file>
@@ -220,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,17 +222,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,14 +282,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,208 +565,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W13"/>
+  <dimension ref="B1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:23">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:20" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="R13" t="s">
-        <v>43</v>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="19">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$42</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,130 +27,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재
+형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표면
+처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치수
+공차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>포켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(15T↑)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/B
+TAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파
+트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀링면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통
+포
+켓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공차
+Hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAP면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수
+Hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포
+켓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/B
+Hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업
+형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재
+종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤
+곽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>윤곽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(15T↑)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최종 
+견적가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종전가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도면번호 </t>
-  </si>
-  <si>
-    <t>Part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타
+추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-  </si>
-  <si>
-    <t>규격</t>
-  </si>
-  <si>
-    <t>소재비</t>
-  </si>
-  <si>
-    <t>가공비</t>
-  </si>
-  <si>
-    <t>종전가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계산
 견적가</t>
-  </si>
-  <si>
-    <t>최종
-견적가</t>
-  </si>
-  <si>
-    <t>작업
-형태</t>
-  </si>
-  <si>
-    <t>소재
-형태</t>
-  </si>
-  <si>
-    <t>소재
-종류</t>
-  </si>
-  <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_MATERIAL_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_PROCESS_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_ETC_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_FINAL_EST_AMT}</t>
-  </si>
-  <si>
-    <t>${data.DTL_AMOUNT}</t>
-  </si>
-  <si>
-    <t>${data.ROWNUM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>통포켓</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(15T↑)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${data.DRAWING_NUM}</t>
-  </si>
-  <si>
-    <t>${data.PART_NUM}</t>
-  </si>
-  <si>
-    <t>${data.ITEM_QTY}</t>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
-  </si>
-  <si>
-    <t>${data.MATERIAL_TYPE_NM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${data.MATERIAL_DETAIL_NM}</t>
-  </si>
-  <si>
-    <t>${data.WORK_TYPE_NM}</t>
-  </si>
-  <si>
-    <t>${data.CALCUL_EST_UNIT_COST}</t>
-  </si>
-  <si>
-    <t>표면처리</t>
-  </si>
-  <si>
-    <t>TM각비</t>
-  </si>
-  <si>
-    <t>연마비</t>
-  </si>
-  <si>
-    <t>열처리</t>
-  </si>
-  <si>
-    <t>표면
-처리</t>
-  </si>
-  <si>
-    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SURFACE_TREAT_NM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MATERIAL_FINISH_GRIND_NM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${data.UNIT_TM_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_GRIND_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${data.UNIT_HEAT_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ROW_NUM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.PART_NUM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MATERIAL_KIND_NM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.WORK_TYPE_NM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_PROCESS_AMT}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_ETC_AMT}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_AMT_NOTE}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_EST_AMT}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적번호
+(도면번호)</t>
+  </si>
+  <si>
+    <t>${data.EST_NUM}</t>
+  </si>
+  <si>
+    <t>${data.ITEM_QTY}//:1</t>
+  </si>
+  <si>
+    <t>${data.CALCUL_EST_UNIT_COST}//:1</t>
+  </si>
+  <si>
+    <t>${data.DTL_AMOUNT}//:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,19 +307,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,24 +385,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,13 +411,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -229,16 +432,93 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -249,44 +529,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -300,6 +662,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA4DAA4-E8C9-4C02-BB5C-A16DF5EED3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="40000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6324600" y="552450"/>
+          <a:ext cx="2752725" cy="8394456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,182 +994,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T4"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Y4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="8" customWidth="1"/>
+    <col min="12" max="19" width="4.42578125" style="8" customWidth="1"/>
+    <col min="20" max="21" width="8.42578125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9" style="8" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="9.75" customHeight="1"/>
-    <row r="2" spans="2:20" ht="15" customHeight="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="U1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.5" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+  <mergeCells count="32">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -237,10 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.ROW_NUM}//:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.PART_NUM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,6 +283,9 @@
   </si>
   <si>
     <t>${data.DTL_AMOUNT}//:1</t>
+  </si>
+  <si>
+    <t>${data.ROWNUM}//:1</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +999,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1030,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>7</v>
@@ -1147,25 +1146,25 @@
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>33</v>
@@ -1188,22 +1187,22 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1">

--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\intellij\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -229,14 +229,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.UNIT_TM_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.UNIT_HEAT_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.PART_NUM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,6 +278,14 @@
   </si>
   <si>
     <t>${data.ROWNUM}//:1</t>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_TM_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -294,13 +294,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -308,14 +308,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -323,7 +323,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -352,7 +352,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -361,7 +361,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -369,7 +369,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -573,7 +573,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,11 +582,35 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,24 +630,6 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,17 +639,11 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,60 +999,60 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="8" customWidth="1"/>
-    <col min="12" max="19" width="4.42578125" style="8" customWidth="1"/>
-    <col min="20" max="21" width="8.42578125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="8" customWidth="1"/>
+    <col min="12" max="19" width="4.375" style="8" customWidth="1"/>
+    <col min="20" max="21" width="8.375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="10.375" style="8" customWidth="1"/>
     <col min="23" max="23" width="9" style="8" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="10.25" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.375" style="8" customWidth="1"/>
     <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1061,16 +1061,16 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1082,50 +1082,50 @@
       <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="26"/>
+    <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="18" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -1137,34 +1137,34 @@
       <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="22"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="30"/>
     </row>
-    <row r="3" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>51</v>
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>33</v>
@@ -1176,7 +1176,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -1186,40 +1186,40 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="W3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>50</v>
+      <c r="Y3" s="34" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
       <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -1229,24 +1229,22 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
@@ -1263,17 +1261,19 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_list_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>규격</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>각비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>포
 켓</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -217,18 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.MATERIAL_DETAIL_NM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SURFACE_TREAT_NM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.MATERIAL_FINISH_GRIND_NM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.PART_NUM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,11 +264,19 @@
     <t>${data.ROWNUM}//:1</t>
   </si>
   <si>
-    <t>${data.UNIT_MATERIAL_FINISH_TM_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
+    <t>${data.MATERIAL_DETAIL_NM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SURFACE_TREAT_NM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MATERIAL_FINISH_GRIND_NM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,9 +284,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -401,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -527,6 +518,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,113 +566,110 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,8 +734,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6324600" y="552450"/>
-          <a:ext cx="2752725" cy="8394456"/>
+          <a:off x="6315075" y="552450"/>
+          <a:ext cx="2676525" cy="8394456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,247 +1031,246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="8" customWidth="1"/>
-    <col min="12" max="19" width="4.375" style="8" customWidth="1"/>
-    <col min="20" max="21" width="8.375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="10.375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9" style="8" customWidth="1"/>
-    <col min="24" max="24" width="10.25" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.375" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="3.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
+    <col min="12" max="19" width="4.375" style="6" customWidth="1"/>
+    <col min="20" max="21" width="8.375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.25" style="6" customWidth="1"/>
+    <col min="25" max="25" width="8.375" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="K1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="30"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="U3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="V3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="W3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>48</v>
+      <c r="Y3" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
+  <mergeCells count="37">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
@@ -1261,15 +1287,17 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
